--- a/graphs/sonar_pretensionata_dinamico.xlsx
+++ b/graphs/sonar_pretensionata_dinamico.xlsx
@@ -455,13 +455,13 @@
         <v>0.2687603878116343</v>
       </c>
       <c r="C2" t="n">
-        <v>112.16</v>
+        <v>4427.899318504729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001202899332321391</v>
+        <v>0.2542192326779488</v>
       </c>
       <c r="E2" t="n">
-        <v>15.98941414751348</v>
+        <v>3379.182024120899</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>0.351928114186851</v>
       </c>
       <c r="C3" t="n">
-        <v>132.29</v>
+        <v>5222.599864880444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004863704257849038</v>
+        <v>0.3519302984361281</v>
       </c>
       <c r="E3" t="n">
-        <v>64.6502706430697</v>
+        <v>4677.995939524102</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         <v>0.400267111111111</v>
       </c>
       <c r="C4" t="n">
-        <v>152.28</v>
+        <v>6011.77343279155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009034197934178595</v>
+        <v>0.4280264039901766</v>
       </c>
       <c r="E4" t="n">
-        <v>120.0861124693717</v>
+        <v>5689.495302823623</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>0.4551751111111112</v>
       </c>
       <c r="C5" t="n">
-        <v>171.94</v>
+        <v>6787.919122893217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009907140128592713</v>
+        <v>0.4866287043590844</v>
       </c>
       <c r="E5" t="n">
-        <v>131.6896034053161</v>
+        <v>6468.460127363383</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>0.5071474489795917</v>
       </c>
       <c r="C6" t="n">
-        <v>191.85</v>
+        <v>7573.934417395973</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01165955314184162</v>
+        <v>0.5627076843507866</v>
       </c>
       <c r="E6" t="n">
-        <v>154.9833663369939</v>
+        <v>7479.731850953641</v>
       </c>
     </row>
     <row r="7">
@@ -540,13 +540,13 @@
         <v>0.5648100591715975</v>
       </c>
       <c r="C7" t="n">
-        <v>211.84</v>
+        <v>8363.107985307079</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01997260206805664</v>
+        <v>0.6522993774842355</v>
       </c>
       <c r="E7" t="n">
-        <v>265.4836820170063</v>
+        <v>8670.619872117148</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_pretensionata_dinamico.xlsx
+++ b/graphs/sonar_pretensionata_dinamico.xlsx
@@ -455,13 +455,13 @@
         <v>0.2687603878116343</v>
       </c>
       <c r="C2" t="n">
-        <v>4427.899318504729</v>
+        <v>4.427899318504729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2542192326779488</v>
+        <v>0.0002542192326779488</v>
       </c>
       <c r="E2" t="n">
-        <v>3379.182024120899</v>
+        <v>0.003379196820553934</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>0.351928114186851</v>
       </c>
       <c r="C3" t="n">
-        <v>5222.599864880444</v>
+        <v>5.222599864880444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3519302984361281</v>
+        <v>0.0003519302984361281</v>
       </c>
       <c r="E3" t="n">
-        <v>4677.995939524102</v>
+        <v>0.004678006627838826</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         <v>0.400267111111111</v>
       </c>
       <c r="C4" t="n">
-        <v>6011.77343279155</v>
+        <v>6.01177343279155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4280264039901766</v>
+        <v>0.0004280264039901766</v>
       </c>
       <c r="E4" t="n">
-        <v>5689.495302823623</v>
+        <v>0.005689504090933766</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>0.4551751111111112</v>
       </c>
       <c r="C5" t="n">
-        <v>6787.919122893217</v>
+        <v>6.787919122893217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4866287043590844</v>
+        <v>0.0004866287043590844</v>
       </c>
       <c r="E5" t="n">
-        <v>6468.460127363383</v>
+        <v>0.006468467857166016</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>0.5071474489795917</v>
       </c>
       <c r="C6" t="n">
-        <v>7573.934417395973</v>
+        <v>7.573934417395973</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5627076843507866</v>
+        <v>0.0005627076843507865</v>
       </c>
       <c r="E6" t="n">
-        <v>7479.731850953641</v>
+        <v>0.007479738535675586</v>
       </c>
     </row>
     <row r="7">
@@ -540,13 +540,13 @@
         <v>0.5648100591715975</v>
       </c>
       <c r="C7" t="n">
-        <v>8363.107985307079</v>
+        <v>8.363107985307078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6522993774842355</v>
+        <v>0.0006522993774842354</v>
       </c>
       <c r="E7" t="n">
-        <v>8670.619872117148</v>
+        <v>0.008670625638709859</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_pretensionata_dinamico.xlsx
+++ b/graphs/sonar_pretensionata_dinamico.xlsx
@@ -458,10 +458,10 @@
         <v>4.427899318504729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0002542192326779488</v>
+        <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003379196820553934</v>
+        <v>0.06646196723119815</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +475,10 @@
         <v>5.222599864880444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003519302984361281</v>
+        <v>0.005</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004678006627838826</v>
+        <v>0.06646196723119815</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         <v>6.01177343279155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004280264039901766</v>
+        <v>0.005</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005689504090933766</v>
+        <v>0.06646196723119815</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +509,10 @@
         <v>6.787919122893217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004866287043590844</v>
+        <v>0.005</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006468467857166016</v>
+        <v>0.06646196723119815</v>
       </c>
     </row>
     <row r="6">
@@ -526,10 +526,10 @@
         <v>7.573934417395973</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005627076843507865</v>
+        <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007479738535675586</v>
+        <v>0.06646196723119815</v>
       </c>
     </row>
     <row r="7">
@@ -543,10 +543,10 @@
         <v>8.363107985307078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006522993774842354</v>
+        <v>0.005</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008670625638709859</v>
+        <v>0.06646196723119815</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_pretensionata_dinamico.xlsx
+++ b/graphs/sonar_pretensionata_dinamico.xlsx
@@ -452,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2687603878116343</v>
+        <v>0.2994521604938271</v>
       </c>
       <c r="C2" t="n">
         <v>4.427899318504729</v>
@@ -461,7 +461,7 @@
         <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06646196723119815</v>
+        <v>0.0741490779471395</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>0.005</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06646196723119815</v>
+        <v>0.0741490779471395</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>0.005</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06646196723119815</v>
+        <v>0.0741490779471395</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.005</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06646196723119815</v>
+        <v>0.0741490779471395</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06646196723119815</v>
+        <v>0.0741490779471395</v>
       </c>
     </row>
     <row r="7">
@@ -546,7 +546,7 @@
         <v>0.005</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06646196723119815</v>
+        <v>0.0741490779471395</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_pretensionata_dinamico.xlsx
+++ b/graphs/sonar_pretensionata_dinamico.xlsx
@@ -461,7 +461,7 @@
         <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0741490779471395</v>
+        <v>0.07415012821942134</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>0.005</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0741490779471395</v>
+        <v>0.07415012821942134</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>0.005</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0741490779471395</v>
+        <v>0.07415012821942134</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.005</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0741490779471395</v>
+        <v>0.07415012821942134</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0741490779471395</v>
+        <v>0.07415012821942134</v>
       </c>
     </row>
     <row r="7">
@@ -546,7 +546,7 @@
         <v>0.005</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0741490779471395</v>
+        <v>0.07415012821942134</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_pretensionata_dinamico.xlsx
+++ b/graphs/sonar_pretensionata_dinamico.xlsx
@@ -458,10 +458,10 @@
         <v>4.427899318504729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005</v>
+        <v>0.01094444444444444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07415012821942134</v>
+        <v>0.1623045714944246</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +475,10 @@
         <v>5.222599864880444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005</v>
+        <v>0.01186470588235294</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07415012821942134</v>
+        <v>0.1759518415483192</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         <v>6.01177343279155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005</v>
+        <v>0.01265333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07415012821942134</v>
+        <v>0.187647013505389</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +509,10 @@
         <v>6.787919122893217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005</v>
+        <v>0.01349333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07415012821942134</v>
+        <v>0.2001040326344304</v>
       </c>
     </row>
     <row r="6">
@@ -526,10 +526,10 @@
         <v>7.573934417395973</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005</v>
+        <v>0.01424285714285714</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07415012821942134</v>
+        <v>0.211219311914713</v>
       </c>
     </row>
     <row r="7">
@@ -543,10 +543,10 @@
         <v>8.363107985307078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005</v>
+        <v>0.01503076923076923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07415012821942134</v>
+        <v>0.2229038834330648</v>
       </c>
     </row>
   </sheetData>
